--- a/df1.xlsx
+++ b/df1.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bokwoon/Documents/SIMS-scraping/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3422E25-1931-D645-867C-99E7951A2152}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>2 exact hits</t>
   </si>
@@ -23,7 +28,7 @@
     <t>Petrographic Examination of Aggregates for Concrete</t>
   </si>
   <si>
-    <t xml:space="preserve">BS EN 932-3                       </t>
+    <t>BS EN 932-3                       </t>
   </si>
   <si>
     <t>T00938</t>
@@ -35,7 +40,7 @@
     <t>ASO210</t>
   </si>
   <si>
-    <t xml:space="preserve">BS 812-104                                                                         </t>
+    <t>BS 812-104                                                                         </t>
   </si>
   <si>
     <t>ASO078</t>
@@ -611,20 +616,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -640,15 +644,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -936,20 +949,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -971,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -982,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -993,7 +1005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1004,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1059,7 +1071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1070,7 +1082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1147,7 +1159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1169,7 +1181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1247,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1268,7 +1280,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1279,7 +1291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -1312,7 +1324,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1345,7 +1357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1400,7 +1412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -1411,7 +1423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1434,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1455,7 +1467,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1544,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1566,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1565,7 +1577,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1598,7 +1610,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -1609,7 +1621,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1675,7 +1687,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -1686,7 +1698,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -1719,7 +1731,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -1752,7 +1764,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -1763,7 +1775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>144</v>
       </c>
@@ -1774,7 +1786,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1797,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1819,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>152</v>
       </c>
@@ -1829,7 +1841,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +1852,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>158</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1873,7 +1885,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -1895,7 +1907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -1906,7 +1918,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>175</v>
       </c>
@@ -1961,7 +1973,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -1983,7 +1995,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>184</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -2005,7 +2017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -2027,7 +2039,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -2039,6 +2051,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>